--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori1/99/word_level_predictions_99.xlsx
@@ -2114,210 +2114,210 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K35" t="b">
-        <v>1</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>updated</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2374,366 +2374,366 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" t="n">
         <v>3</v>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" t="n">
         <v>3</v>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" t="n">
         <v>3</v>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" t="n">
         <v>2</v>
       </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" t="n">
         <v>3</v>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" t="n">
         <v>3</v>
       </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" t="n">
         <v>3</v>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" t="n">
         <v>4</v>
       </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" t="n">
         <v>3</v>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" t="n">
         <v>5</v>
       </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" t="n">
         <v>3</v>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" t="n">
         <v>6</v>
       </c>
-      <c r="E44" s="2" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6794,158 +6794,158 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>9</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="inlineStr">
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F123" s="2" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>9</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" t="n">
         <v>9</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" t="n">
         <v>2</v>
       </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -9758,574 +9758,574 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>14</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>3</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F180" s="2" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>14</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>4</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>14</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>5</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>14</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>6</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>14</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>7</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>14</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>8</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>14</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>9</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n">
+      <c r="A187" t="n">
         <v>14</v>
       </c>
-      <c r="B187" s="2" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C187" s="2" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D187" s="2" t="n">
+      <c r="D187" t="n">
         <v>10</v>
       </c>
-      <c r="E187" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F187" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G187" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H187" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I187" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K187" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L187" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G187" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I187" t="b">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K187" t="b">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n">
+      <c r="A188" t="n">
         <v>14</v>
       </c>
-      <c r="B188" s="2" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C188" s="2" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D188" s="2" t="n">
+      <c r="D188" t="n">
         <v>11</v>
       </c>
-      <c r="E188" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F188" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G188" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I188" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K188" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L188" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G188" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I188" t="b">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K188" t="b">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
+      <c r="A189" t="n">
         <v>14</v>
       </c>
-      <c r="B189" s="2" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C189" s="2" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D189" s="2" t="n">
+      <c r="D189" t="n">
         <v>12</v>
       </c>
-      <c r="E189" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F189" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G189" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L189" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G189" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I189" t="b">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K189" t="b">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
+      <c r="A190" t="n">
         <v>14</v>
       </c>
-      <c r="B190" s="2" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C190" s="2" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D190" s="2" t="n">
+      <c r="D190" t="n">
         <v>13</v>
       </c>
-      <c r="E190" s="2" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F190" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G190" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L190" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G190" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I190" t="b">
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K190" t="b">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori1/99/word_level_predictions_99.xlsx
@@ -2114,210 +2114,210 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" t="n">
         <v>2</v>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" t="n">
         <v>6</v>
       </c>
-      <c r="E33" s="2" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" t="n">
         <v>2</v>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" t="n">
         <v>7</v>
       </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" t="n">
         <v>2</v>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" t="n">
         <v>8</v>
       </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" t="n">
         <v>2</v>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>updated</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" t="n">
         <v>9</v>
       </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2374,366 +2374,366 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
+      <c r="D38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K38" t="b">
-        <v>1</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="D39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6794,158 +6794,158 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="inlineStr">
+      <c r="D123" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="F123" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="D124" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9758,574 +9758,574 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="F180" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E186" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
+      <c r="A187" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B187" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="C187" s="2" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D187" t="n">
+      <c r="D187" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G187" t="b">
-        <v>1</v>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I187" t="b">
-        <v>1</v>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K187" t="b">
-        <v>1</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E187" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F187" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G187" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J187" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L187" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
+      <c r="A188" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B188" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C188" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D188" t="n">
+      <c r="D188" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G188" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I188" t="b">
-        <v>1</v>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K188" t="b">
-        <v>1</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E188" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F188" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G188" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I188" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J188" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K188" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L188" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C189" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D189" t="n">
+      <c r="D189" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G189" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I189" t="b">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K189" t="b">
-        <v>1</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E189" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F189" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G189" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
+      <c r="A190" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B190" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="C190" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D190" t="n">
+      <c r="D190" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="E190" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G190" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I190" t="b">
-        <v>1</v>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K190" t="b">
-        <v>1</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F190" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G190" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J190" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L190" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
